--- a/传感器/连续物位测量/角度变送器/迈安德物料定义-04物料导入模板-角度变送器.xlsx
+++ b/传感器/连续物位测量/角度变送器/迈安德物料定义-04物料导入模板-角度变送器.xlsx
@@ -539,7 +539,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>A308-10001-1213</t>
+          <t>A308-10001-1214</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>A308-10002-1213</t>
+          <t>A308-10002-1214</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
